--- a/public/file_import/employees.xlsx
+++ b/public/file_import/employees.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{326D727B-7673-4C04-8306-B83BAAD3E9F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E18B22-EC1C-4D0D-A39E-77391DE5A431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>identification_no</t>
   </si>
@@ -118,6 +118,63 @@
   </si>
   <si>
     <t>extra_etc</t>
+  </si>
+  <si>
+    <t>1559900342333</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>อนุบาล 1</t>
+  </si>
+  <si>
+    <t>อนุบาล 1/2</t>
+  </si>
+  <si>
+    <t>นาย</t>
+  </si>
+  <si>
+    <t>ทรงยศ</t>
+  </si>
+  <si>
+    <t>ใจไชย</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>songyot</t>
+  </si>
+  <si>
+    <t>jaichai</t>
+  </si>
+  <si>
+    <t>kie</t>
+  </si>
+  <si>
+    <t>โสด</t>
+  </si>
+  <si>
+    <t>03/01/1996</t>
+  </si>
+  <si>
+    <t>songyot@bananacoding.com</t>
+  </si>
+  <si>
+    <t>09599959994</t>
+  </si>
+  <si>
+    <t>02/05/2020</t>
+  </si>
+  <si>
+    <t>112/2 ตำบลเมือง อำเภอเมือง</t>
+  </si>
+  <si>
+    <t>ไทย</t>
+  </si>
+  <si>
+    <t>TMB</t>
   </si>
 </sst>
 </file>
@@ -212,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,11 +289,14 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,17 +750,96 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1232313</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5">
+        <v>373822322</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="16.5">
+      <c r="A3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="X3" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{6C9B869A-89F7-4864-8640-AAF275C5FBAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/file_import/employees.xlsx
+++ b/public/file_import/employees.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E18B22-EC1C-4D0D-A39E-77391DE5A431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{871B3E33-458A-43D0-87CE-3480338BC4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+  <si>
+    <t>จำเป็นต้องกรอก</t>
+  </si>
   <si>
     <t>identification_no</t>
   </si>
@@ -214,7 +217,7 @@
       <name val="Angsana New"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +305,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,52 +631,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD127"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AF59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="20" style="4" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" style="4" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="19" style="4" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="17" style="4" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="4" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="31.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="20" style="4" customWidth="1"/>
+    <col min="26" max="26" width="7.85546875" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6.28515625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="19" style="4" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="17" style="4" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" style="4" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="20.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" ht="20.25" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -667,13 +686,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -682,7 +701,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -715,16 +734,16 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -739,20 +758,20 @@
       <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="16.5">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
+    <row r="2" spans="1:32" ht="16.5">
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
@@ -762,7 +781,7 @@
       <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -777,7 +796,7 @@
       <c r="I2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -786,59 +805,63 @@
       <c r="M2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="5">
+        <v>49</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="5">
         <v>1232313</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="4">
+      <c r="W2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="4">
         <v>2</v>
       </c>
-      <c r="X2" s="5">
+      <c r="Y2" s="5">
         <v>373822322</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Z2" s="4">
         <v>50000</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AA2" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16.5">
-      <c r="A3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="5"/>
+    <row r="3" spans="1:32" ht="16.5">
+      <c r="B3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
+    <row r="4" spans="1:32" ht="16.5"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{6C9B869A-89F7-4864-8640-AAF275C5FBAC}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{6C9B869A-89F7-4864-8640-AAF275C5FBAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/file_import/employees.xlsx
+++ b/public/file_import/employees.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{871B3E33-458A-43D0-87CE-3480338BC4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52EAAAF1-3358-4DCB-9CE7-046ABAB0376F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+  <si>
+    <t>ไฟล์นำเข้าข้อมูลพนักงานในโรงเรียน</t>
+  </si>
   <si>
     <t>จำเป็นต้องกรอก</t>
   </si>
@@ -201,18 +204,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Angsana New"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Angsana New"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="Angsana New"/>
     </font>
@@ -237,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -273,6 +279,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -280,40 +295,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,237 +646,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AF59"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="31.85546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="20" style="4" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" style="4" customWidth="1"/>
-    <col min="27" max="27" width="6.28515625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="19" style="4" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="17" style="4" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="4" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:31" ht="27.75" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+    </row>
+    <row r="2" spans="1:31" ht="23.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="20.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="U3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="W3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AA3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AC3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AD3" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="AE3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="16.5">
-      <c r="B2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="4" spans="1:31" ht="23.25">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="M4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="P4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="Q4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="S4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" s="5">
         <v>1232313</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="4">
+      <c r="V4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="1">
         <v>2</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="X4" s="5">
         <v>373822322</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Y4" s="1">
         <v>50000</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="Z4" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16.5">
-      <c r="B3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="Y3" s="5"/>
+    <row r="5" spans="1:31" ht="23.25">
+      <c r="A5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
-    <row r="4" spans="1:32" ht="16.5"/>
+    <row r="6" spans="1:31" ht="23.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:AE1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{6C9B869A-89F7-4864-8640-AAF275C5FBAC}"/>
+    <hyperlink ref="O4" r:id="rId1" xr:uid="{6C9B869A-89F7-4864-8640-AAF275C5FBAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/file_import/employees.xlsx
+++ b/public/file_import/employees.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52EAAAF1-3358-4DCB-9CE7-046ABAB0376F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A78CBE-5E3C-4420-BB36-CDFF54297315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>ไฟล์นำเข้าข้อมูลพนักงานในโรงเรียน</t>
   </si>
   <si>
     <t>จำเป็นต้องกรอก</t>
+  </si>
+  <si>
+    <t>กรอกชื่อชั้นเรียนที่มีในโรงเรียน</t>
+  </si>
+  <si>
+    <t>กรอกชื่อห้องเรียนที่มีในโรงเรียน</t>
+  </si>
+  <si>
+    <t>วัน/เดือน/ปี</t>
   </si>
   <si>
     <t>identification_no</t>
@@ -187,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +230,18 @@
       <sz val="16"/>
       <color theme="10"/>
       <name val="Angsana New"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -293,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,7 +349,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,16 +675,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -688,241 +715,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="27.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
     </row>
     <row r="2" spans="1:31" ht="23.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
     </row>
     <row r="3" spans="1:31" ht="20.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="23.25">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="H4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>44</v>
       </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="N4" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="U4" s="5">
         <v>1232313</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="V4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="11">
         <v>2</v>
       </c>
       <c r="X4" s="5">
         <v>373822322</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="11">
         <v>50000</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="11">
         <v>2000</v>
       </c>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
     </row>
     <row r="5" spans="1:31" ht="23.25">
       <c r="A5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="5"/>
       <c r="O5" s="9"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="5"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="5"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" ht="23.25"/>
+    <row r="6" spans="1:31" ht="23.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:AE1"/>
   </mergeCells>
   <hyperlinks>
